--- a/01_input/Plant_Health.xlsx
+++ b/01_input/Plant_Health.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f304f79f068e311c/Universitaet/MASTER/MasterThesis/11_Data_Analysis_MA/01_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1702" documentId="8_{D2FD8359-5A66-4315-9A6B-D97BD2E27744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{614F36EF-B4BB-4617-A9E2-D036134229A5}"/>
+  <xr:revisionPtr revIDLastSave="1709" documentId="8_{D2FD8359-5A66-4315-9A6B-D97BD2E27744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55DAA5C4-247E-46C4-95C6-BC6EC1C12B46}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6B17D147-A37E-4167-BADF-976E9295C4E2}"/>
+    <workbookView xWindow="88560" yWindow="2160" windowWidth="21600" windowHeight="12150" activeTab="2" xr2:uid="{6B17D147-A37E-4167-BADF-976E9295C4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="chlorophyll" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="BBCH" sheetId="6" r:id="rId4"/>
     <sheet name="Read_Me" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SLA!$A$1:$E$86</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="163">
   <si>
     <t>Feldcode</t>
   </si>
@@ -526,6 +529,9 @@
   </si>
   <si>
     <t>Feld</t>
+  </si>
+  <si>
+    <t>3_1_2_2/3</t>
   </si>
 </sst>
 </file>
@@ -5507,7 +5513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE65CE19-287F-4ACD-A265-43448F996390}">
   <dimension ref="A1:C303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -8862,8 +8868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94551159-7E7E-440E-AEC5-F57A78563D50}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9360,7 +9366,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="B45">
         <v>4.2900999999999998</v>
@@ -9821,6 +9827,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E86" xr:uid="{94551159-7E7E-440E-AEC5-F57A78563D50}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01_input/Plant_Health.xlsx
+++ b/01_input/Plant_Health.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f304f79f068e311c/Universitaet/MASTER/MasterThesis/11_Data_Analysis_MA/01_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1709" documentId="8_{D2FD8359-5A66-4315-9A6B-D97BD2E27744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55DAA5C4-247E-46C4-95C6-BC6EC1C12B46}"/>
+  <xr:revisionPtr revIDLastSave="1725" documentId="8_{D2FD8359-5A66-4315-9A6B-D97BD2E27744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B12A8974-2A33-41EE-BC11-E906F4262129}"/>
   <bookViews>
-    <workbookView xWindow="88560" yWindow="2160" windowWidth="21600" windowHeight="12150" activeTab="2" xr2:uid="{6B17D147-A37E-4167-BADF-976E9295C4E2}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{6B17D147-A37E-4167-BADF-976E9295C4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="chlorophyll" sheetId="1" r:id="rId1"/>
@@ -626,7 +626,15 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{52DB603D-2FF9-4C05-8686-638B60763CB8}" name="Tabelle2" displayName="Tabelle2" ref="A1:C303" totalsRowShown="0">
-  <autoFilter ref="A1:C303" xr:uid="{52DB603D-2FF9-4C05-8686-638B60763CB8}"/>
+  <autoFilter ref="A1:C303" xr:uid="{52DB603D-2FF9-4C05-8686-638B60763CB8}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2_1_1"/>
+        <filter val="2_1_2"/>
+        <filter val="2_1_3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B7E10B1D-FD26-49F3-A2E1-42393F9192AB}" name="Feldcode"/>
     <tableColumn id="2" xr3:uid="{12C47E37-33F8-444D-8430-5BF386412D17}" name="Höhe [cm]"/>
@@ -5513,8 +5521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE65CE19-287F-4ACD-A265-43448F996390}">
   <dimension ref="A1:C303"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -5533,7 +5541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -5544,7 +5552,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -5555,7 +5563,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -5566,7 +5574,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -5577,7 +5585,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -5588,7 +5596,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -5599,7 +5607,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -5610,7 +5618,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -5621,7 +5629,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -5632,7 +5640,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -5643,7 +5651,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -5654,7 +5662,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -5665,7 +5673,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -5676,7 +5684,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -5687,7 +5695,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -5698,7 +5706,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -5709,7 +5717,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -5720,7 +5728,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -5731,7 +5739,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -5742,7 +5750,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -5753,7 +5761,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -5764,7 +5772,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -5775,7 +5783,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -5786,7 +5794,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -5797,7 +5805,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -5808,7 +5816,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -5819,7 +5827,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -5830,7 +5838,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -5841,7 +5849,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -5852,7 +5860,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -5863,7 +5871,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -5874,7 +5882,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -5885,7 +5893,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -5896,7 +5904,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -5907,7 +5915,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -5918,7 +5926,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -5929,7 +5937,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -5940,7 +5948,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -5951,7 +5959,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -5962,7 +5970,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -5973,7 +5981,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -5984,7 +5992,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -5995,7 +6003,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -6006,7 +6014,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -6017,7 +6025,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -6028,7 +6036,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -6039,7 +6047,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -6050,7 +6058,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -6061,7 +6069,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -6072,7 +6080,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -6083,7 +6091,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -6094,7 +6102,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -6105,7 +6113,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -6116,7 +6124,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -6127,7 +6135,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -6138,7 +6146,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -6149,7 +6157,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -6160,7 +6168,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -6171,7 +6179,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -6182,7 +6190,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -6193,7 +6201,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>48</v>
       </c>
@@ -6204,7 +6212,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -6215,7 +6223,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -6226,7 +6234,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -6237,7 +6245,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -6248,7 +6256,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -6259,7 +6267,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -6270,7 +6278,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>49</v>
       </c>
@@ -6281,7 +6289,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -6292,7 +6300,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -6303,7 +6311,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -6314,7 +6322,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -6325,7 +6333,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>50</v>
       </c>
@@ -6336,7 +6344,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>50</v>
       </c>
@@ -6347,7 +6355,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>50</v>
       </c>
@@ -6358,7 +6366,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -6369,7 +6377,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>50</v>
       </c>
@@ -6380,7 +6388,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>50</v>
       </c>
@@ -6391,7 +6399,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>50</v>
       </c>
@@ -6402,7 +6410,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>50</v>
       </c>
@@ -6413,7 +6421,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>50</v>
       </c>
@@ -6424,7 +6432,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>50</v>
       </c>
@@ -6545,7 +6553,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>51</v>
       </c>
@@ -6556,7 +6564,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -6567,7 +6575,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>51</v>
       </c>
@@ -6578,7 +6586,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>51</v>
       </c>
@@ -6589,7 +6597,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>51</v>
       </c>
@@ -6600,7 +6608,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>51</v>
       </c>
@@ -6611,7 +6619,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>51</v>
       </c>
@@ -6622,7 +6630,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>51</v>
       </c>
@@ -6633,7 +6641,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>51</v>
       </c>
@@ -6644,7 +6652,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>51</v>
       </c>
@@ -6655,7 +6663,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>52</v>
       </c>
@@ -6666,7 +6674,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>52</v>
       </c>
@@ -6677,7 +6685,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>52</v>
       </c>
@@ -6688,7 +6696,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>52</v>
       </c>
@@ -6699,7 +6707,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>52</v>
       </c>
@@ -6710,7 +6718,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>52</v>
       </c>
@@ -6721,7 +6729,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>52</v>
       </c>
@@ -6732,7 +6740,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>52</v>
       </c>
@@ -6743,7 +6751,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>52</v>
       </c>
@@ -6754,7 +6762,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>52</v>
       </c>
@@ -6765,7 +6773,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>53</v>
       </c>
@@ -6776,7 +6784,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>53</v>
       </c>
@@ -6787,7 +6795,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>53</v>
       </c>
@@ -6798,7 +6806,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>53</v>
       </c>
@@ -6809,7 +6817,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>53</v>
       </c>
@@ -6820,7 +6828,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>53</v>
       </c>
@@ -6831,7 +6839,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>53</v>
       </c>
@@ -6842,7 +6850,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>53</v>
       </c>
@@ -6853,7 +6861,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>53</v>
       </c>
@@ -6869,7 +6877,7 @@
         <v>8</v>
       </c>
       <c r="B123">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C123" s="1">
         <v>45381</v>
@@ -6880,7 +6888,7 @@
         <v>8</v>
       </c>
       <c r="B124">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C124" s="1">
         <v>45381</v>
@@ -6891,7 +6899,7 @@
         <v>8</v>
       </c>
       <c r="B125">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C125" s="1">
         <v>45381</v>
@@ -6902,7 +6910,7 @@
         <v>8</v>
       </c>
       <c r="B126">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C126" s="1">
         <v>45381</v>
@@ -6913,7 +6921,7 @@
         <v>8</v>
       </c>
       <c r="B127">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C127" s="1">
         <v>45381</v>
@@ -6924,7 +6932,7 @@
         <v>8</v>
       </c>
       <c r="B128">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C128" s="1">
         <v>45381</v>
@@ -6935,7 +6943,7 @@
         <v>8</v>
       </c>
       <c r="B129">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C129" s="1">
         <v>45381</v>
@@ -6946,7 +6954,7 @@
         <v>8</v>
       </c>
       <c r="B130">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C130" s="1">
         <v>45381</v>
@@ -6957,7 +6965,7 @@
         <v>8</v>
       </c>
       <c r="B131">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C131" s="1">
         <v>45381</v>
@@ -6968,7 +6976,7 @@
         <v>8</v>
       </c>
       <c r="B132">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C132" s="1">
         <v>45381</v>
@@ -7084,7 +7092,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
         <v>74</v>
       </c>
@@ -7095,7 +7103,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>74</v>
       </c>
@@ -7106,7 +7114,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
         <v>74</v>
       </c>
@@ -7117,7 +7125,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
         <v>74</v>
       </c>
@@ -7128,7 +7136,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>74</v>
       </c>
@@ -7139,7 +7147,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
         <v>74</v>
       </c>
@@ -7150,7 +7158,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
         <v>74</v>
       </c>
@@ -7161,7 +7169,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
         <v>74</v>
       </c>
@@ -7172,7 +7180,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
         <v>74</v>
       </c>
@@ -7183,7 +7191,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
         <v>74</v>
       </c>
@@ -7194,7 +7202,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
         <v>58</v>
       </c>
@@ -7205,7 +7213,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
         <v>58</v>
       </c>
@@ -7216,7 +7224,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
         <v>58</v>
       </c>
@@ -7227,7 +7235,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
         <v>58</v>
       </c>
@@ -7238,7 +7246,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
         <v>58</v>
       </c>
@@ -7249,7 +7257,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
         <v>58</v>
       </c>
@@ -7260,7 +7268,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
         <v>58</v>
       </c>
@@ -7271,7 +7279,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>58</v>
       </c>
@@ -7282,7 +7290,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
         <v>58</v>
       </c>
@@ -7293,7 +7301,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
         <v>58</v>
       </c>
@@ -7304,7 +7312,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
         <v>59</v>
       </c>
@@ -7315,7 +7323,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
         <v>59</v>
       </c>
@@ -7326,7 +7334,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
         <v>59</v>
       </c>
@@ -7337,7 +7345,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
         <v>59</v>
       </c>
@@ -7348,7 +7356,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
         <v>59</v>
       </c>
@@ -7359,7 +7367,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
         <v>59</v>
       </c>
@@ -7370,7 +7378,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
         <v>59</v>
       </c>
@@ -7381,7 +7389,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
         <v>59</v>
       </c>
@@ -7392,7 +7400,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
         <v>59</v>
       </c>
@@ -7403,7 +7411,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
         <v>59</v>
       </c>
@@ -7414,7 +7422,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
         <v>32</v>
       </c>
@@ -7425,7 +7433,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
         <v>32</v>
       </c>
@@ -7436,7 +7444,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
         <v>32</v>
       </c>
@@ -7447,7 +7455,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
         <v>32</v>
       </c>
@@ -7458,7 +7466,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
         <v>32</v>
       </c>
@@ -7469,7 +7477,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
         <v>32</v>
       </c>
@@ -7480,7 +7488,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
         <v>32</v>
       </c>
@@ -7491,7 +7499,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
         <v>32</v>
       </c>
@@ -7502,7 +7510,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
         <v>32</v>
       </c>
@@ -7513,7 +7521,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
         <v>32</v>
       </c>
@@ -7524,7 +7532,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
         <v>60</v>
       </c>
@@ -7535,7 +7543,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
         <v>60</v>
       </c>
@@ -7546,7 +7554,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
         <v>60</v>
       </c>
@@ -7557,7 +7565,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
         <v>60</v>
       </c>
@@ -7568,7 +7576,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
         <v>60</v>
       </c>
@@ -7579,7 +7587,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
         <v>60</v>
       </c>
@@ -7590,7 +7598,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
         <v>60</v>
       </c>
@@ -7601,7 +7609,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
         <v>60</v>
       </c>
@@ -7612,7 +7620,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
         <v>60</v>
       </c>
@@ -7623,7 +7631,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
         <v>60</v>
       </c>
@@ -7634,7 +7642,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A193" t="s">
         <v>60</v>
       </c>
@@ -7645,7 +7653,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
         <v>61</v>
       </c>
@@ -7656,7 +7664,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A195" t="s">
         <v>61</v>
       </c>
@@ -7667,7 +7675,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A196" t="s">
         <v>61</v>
       </c>
@@ -7678,7 +7686,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
         <v>61</v>
       </c>
@@ -7689,7 +7697,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
         <v>61</v>
       </c>
@@ -7700,7 +7708,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A199" t="s">
         <v>61</v>
       </c>
@@ -7711,7 +7719,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
         <v>61</v>
       </c>
@@ -7722,7 +7730,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A201" t="s">
         <v>61</v>
       </c>
@@ -7733,7 +7741,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
         <v>61</v>
       </c>
@@ -7744,7 +7752,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
         <v>61</v>
       </c>
@@ -7755,7 +7763,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
         <v>62</v>
       </c>
@@ -7766,7 +7774,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A205" t="s">
         <v>62</v>
       </c>
@@ -7777,7 +7785,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A206" t="s">
         <v>62</v>
       </c>
@@ -7788,7 +7796,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A207" t="s">
         <v>62</v>
       </c>
@@ -7799,7 +7807,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
         <v>62</v>
       </c>
@@ -7810,7 +7818,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A209" t="s">
         <v>62</v>
       </c>
@@ -7821,7 +7829,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A210" t="s">
         <v>62</v>
       </c>
@@ -7832,7 +7840,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A211" t="s">
         <v>62</v>
       </c>
@@ -7843,7 +7851,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A212" t="s">
         <v>62</v>
       </c>
@@ -7854,7 +7862,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A213" t="s">
         <v>62</v>
       </c>
@@ -7865,7 +7873,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A214" t="s">
         <v>63</v>
       </c>
@@ -7876,7 +7884,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A215" t="s">
         <v>63</v>
       </c>
@@ -7887,7 +7895,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A216" t="s">
         <v>63</v>
       </c>
@@ -7898,7 +7906,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A217" t="s">
         <v>63</v>
       </c>
@@ -7909,7 +7917,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A218" t="s">
         <v>63</v>
       </c>
@@ -7920,7 +7928,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A219" t="s">
         <v>63</v>
       </c>
@@ -7931,7 +7939,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A220" t="s">
         <v>63</v>
       </c>
@@ -7942,7 +7950,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A221" t="s">
         <v>63</v>
       </c>
@@ -7953,7 +7961,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A222" t="s">
         <v>63</v>
       </c>
@@ -7964,7 +7972,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A223" t="s">
         <v>63</v>
       </c>
@@ -7975,7 +7983,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A224" t="s">
         <v>64</v>
       </c>
@@ -7986,7 +7994,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A225" t="s">
         <v>64</v>
       </c>
@@ -7997,7 +8005,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A226" t="s">
         <v>64</v>
       </c>
@@ -8008,7 +8016,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A227" t="s">
         <v>64</v>
       </c>
@@ -8019,7 +8027,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A228" t="s">
         <v>64</v>
       </c>
@@ -8030,7 +8038,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A229" t="s">
         <v>64</v>
       </c>
@@ -8041,7 +8049,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A230" t="s">
         <v>64</v>
       </c>
@@ -8052,7 +8060,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A231" t="s">
         <v>64</v>
       </c>
@@ -8063,7 +8071,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A232" t="s">
         <v>64</v>
       </c>
@@ -8074,7 +8082,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A233" t="s">
         <v>64</v>
       </c>
@@ -8085,7 +8093,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A234" t="s">
         <v>65</v>
       </c>
@@ -8096,7 +8104,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A235" t="s">
         <v>65</v>
       </c>
@@ -8107,7 +8115,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A236" t="s">
         <v>65</v>
       </c>
@@ -8118,7 +8126,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A237" t="s">
         <v>65</v>
       </c>
@@ -8129,7 +8137,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A238" t="s">
         <v>65</v>
       </c>
@@ -8140,7 +8148,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A239" t="s">
         <v>65</v>
       </c>
@@ -8151,7 +8159,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A240" t="s">
         <v>65</v>
       </c>
@@ -8162,7 +8170,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A241" t="s">
         <v>65</v>
       </c>
@@ -8173,7 +8181,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A242" t="s">
         <v>65</v>
       </c>
@@ -8184,7 +8192,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A243" t="s">
         <v>65</v>
       </c>
@@ -8195,7 +8203,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A244" t="s">
         <v>66</v>
       </c>
@@ -8206,7 +8214,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A245" t="s">
         <v>66</v>
       </c>
@@ -8217,7 +8225,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A246" t="s">
         <v>66</v>
       </c>
@@ -8228,7 +8236,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A247" t="s">
         <v>66</v>
       </c>
@@ -8239,7 +8247,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A248" t="s">
         <v>66</v>
       </c>
@@ -8250,7 +8258,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A249" t="s">
         <v>66</v>
       </c>
@@ -8261,7 +8269,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A250" t="s">
         <v>66</v>
       </c>
@@ -8272,7 +8280,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A251" t="s">
         <v>66</v>
       </c>
@@ -8283,7 +8291,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A252" t="s">
         <v>66</v>
       </c>
@@ -8294,7 +8302,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A253" t="s">
         <v>66</v>
       </c>
@@ -8305,7 +8313,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A254" t="s">
         <v>67</v>
       </c>
@@ -8316,7 +8324,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A255" t="s">
         <v>67</v>
       </c>
@@ -8327,7 +8335,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A256" t="s">
         <v>67</v>
       </c>
@@ -8338,7 +8346,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A257" t="s">
         <v>67</v>
       </c>
@@ -8349,7 +8357,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A258" t="s">
         <v>67</v>
       </c>
@@ -8360,7 +8368,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A259" t="s">
         <v>67</v>
       </c>
@@ -8371,7 +8379,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A260" t="s">
         <v>67</v>
       </c>
@@ -8382,7 +8390,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A261" t="s">
         <v>67</v>
       </c>
@@ -8393,7 +8401,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A262" t="s">
         <v>67</v>
       </c>
@@ -8404,7 +8412,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A263" t="s">
         <v>67</v>
       </c>
@@ -8415,7 +8423,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A264" t="s">
         <v>68</v>
       </c>
@@ -8426,7 +8434,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A265" t="s">
         <v>68</v>
       </c>
@@ -8437,7 +8445,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A266" t="s">
         <v>68</v>
       </c>
@@ -8448,7 +8456,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A267" t="s">
         <v>68</v>
       </c>
@@ -8459,7 +8467,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A268" t="s">
         <v>68</v>
       </c>
@@ -8470,7 +8478,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A269" t="s">
         <v>68</v>
       </c>
@@ -8481,7 +8489,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A270" t="s">
         <v>68</v>
       </c>
@@ -8492,7 +8500,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A271" t="s">
         <v>68</v>
       </c>
@@ -8503,7 +8511,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A272" t="s">
         <v>68</v>
       </c>
@@ -8514,7 +8522,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A273" t="s">
         <v>68</v>
       </c>
@@ -8525,7 +8533,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A274" t="s">
         <v>69</v>
       </c>
@@ -8536,7 +8544,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A275" t="s">
         <v>69</v>
       </c>
@@ -8547,7 +8555,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A276" t="s">
         <v>69</v>
       </c>
@@ -8558,7 +8566,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A277" t="s">
         <v>69</v>
       </c>
@@ -8569,7 +8577,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A278" t="s">
         <v>69</v>
       </c>
@@ -8580,7 +8588,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A279" t="s">
         <v>69</v>
       </c>
@@ -8591,7 +8599,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A280" t="s">
         <v>69</v>
       </c>
@@ -8602,7 +8610,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A281" t="s">
         <v>69</v>
       </c>
@@ -8613,7 +8621,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A282" t="s">
         <v>69</v>
       </c>
@@ -8624,7 +8632,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A283" t="s">
         <v>69</v>
       </c>
@@ -8635,7 +8643,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A284" t="s">
         <v>70</v>
       </c>
@@ -8646,7 +8654,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A285" t="s">
         <v>70</v>
       </c>
@@ -8657,7 +8665,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A286" t="s">
         <v>70</v>
       </c>
@@ -8668,7 +8676,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A287" t="s">
         <v>70</v>
       </c>
@@ -8679,7 +8687,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A288" t="s">
         <v>70</v>
       </c>
@@ -8690,7 +8698,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A289" t="s">
         <v>70</v>
       </c>
@@ -8701,7 +8709,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A290" t="s">
         <v>70</v>
       </c>
@@ -8712,7 +8720,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A291" t="s">
         <v>70</v>
       </c>
@@ -8723,7 +8731,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A292" t="s">
         <v>70</v>
       </c>
@@ -8734,7 +8742,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A293" t="s">
         <v>70</v>
       </c>
@@ -8745,7 +8753,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A294" t="s">
         <v>71</v>
       </c>
@@ -8756,7 +8764,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A295" t="s">
         <v>71</v>
       </c>
@@ -8767,7 +8775,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A296" t="s">
         <v>71</v>
       </c>
@@ -8778,7 +8786,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A297" t="s">
         <v>71</v>
       </c>
@@ -8789,7 +8797,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A298" t="s">
         <v>71</v>
       </c>
@@ -8800,7 +8808,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A299" t="s">
         <v>71</v>
       </c>
@@ -8811,7 +8819,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A300" t="s">
         <v>71</v>
       </c>
@@ -8822,7 +8830,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A301" t="s">
         <v>71</v>
       </c>
@@ -8833,7 +8841,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A302" t="s">
         <v>71</v>
       </c>
@@ -8844,7 +8852,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A303" t="s">
         <v>71</v>
       </c>
@@ -8868,7 +8876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94551159-7E7E-440E-AEC5-F57A78563D50}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>

--- a/01_input/Plant_Health.xlsx
+++ b/01_input/Plant_Health.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f304f79f068e311c/Universitaet/MASTER/MasterThesis/11_Data_Analysis_MA/01_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1725" documentId="8_{D2FD8359-5A66-4315-9A6B-D97BD2E27744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B12A8974-2A33-41EE-BC11-E906F4262129}"/>
+  <xr:revisionPtr revIDLastSave="1728" documentId="8_{D2FD8359-5A66-4315-9A6B-D97BD2E27744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E623CBB4-49F2-4BF1-89DF-B045B18CE5FD}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{6B17D147-A37E-4167-BADF-976E9295C4E2}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6B17D147-A37E-4167-BADF-976E9295C4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="chlorophyll" sheetId="1" r:id="rId1"/>
@@ -5522,7 +5522,7 @@
   <dimension ref="A1:C303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
